--- a/biology/Zoologie/Bouvière/Bouvière.xlsx
+++ b/biology/Zoologie/Bouvière/Bouvière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouvi%C3%A8re</t>
+          <t>Bouvière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodeus amarus
 La Bouvière (Rhodeus amarus) est une espèce de petits poissons d'eau douce, de la famille des Cyprinidés. Elle vit en Europe depuis le bassin du Rhône en France jusqu'à la Neva en Russie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouvi%C3%A8re</t>
+          <t>Bouvière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit à l'origine comme Rhodeus sericeus par Pallas en 1776[3]. Néanmoins, il a également été décrit par Bloch en 1782 comme Rhodeus amarus. Actuellement, c'est ce dernier nom qui est accepté comme nom scientifique pour la Bouvière européenne[4]. Dans son aire de répartition, c'est la seule espèce de son genre, Rhodeus. C'est un vestige de l'époque où ces bouvières étaient réunies à l'espèce de Sibérie, Rhodeus sericeus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit à l'origine comme Rhodeus sericeus par Pallas en 1776. Néanmoins, il a également été décrit par Bloch en 1782 comme Rhodeus amarus. Actuellement, c'est ce dernier nom qui est accepté comme nom scientifique pour la Bouvière européenne. Dans son aire de répartition, c'est la seule espèce de son genre, Rhodeus. C'est un vestige de l'époque où ces bouvières étaient réunies à l'espèce de Sibérie, Rhodeus sericeus.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouvi%C3%A8re</t>
+          <t>Bouvière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description, mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce poisson atteint une taille de 5 à 6 cm (au maximum 12 cm). Il se trouve parmi les plantes dans des eaux peu profondes. Il se nourrit principalement de plantes, et, dans une moindre mesure, de vers, de crustacés, d'insectes et de larves.
 Il entretient une relation de parasitisme réciproque avec les moules d'eau douce. C'est un exemple d'interaction durable entre deux espèces : 
